--- a/Produto/Produto_Fevereiro_2023.xlsx
+++ b/Produto/Produto_Fevereiro_2023.xlsx
@@ -530,10 +530,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N709"/>
+  <dimension ref="A1:O709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -868,9 +869,10 @@
     <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,8 +915,9 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -957,8 +960,9 @@
       <c r="N2" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1001,8 +1005,9 @@
       <c r="N3" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,8 +1050,9 @@
       <c r="N4" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1089,8 +1095,9 @@
       <c r="N5" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1133,8 +1140,9 @@
       <c r="N6" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1185,9 @@
       <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1221,8 +1230,9 @@
       <c r="N8" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1265,8 +1275,9 @@
       <c r="N9" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1309,8 +1320,9 @@
       <c r="N10" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1353,8 +1365,9 @@
       <c r="N11" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1397,8 +1410,9 @@
       <c r="N12" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1441,8 +1455,9 @@
       <c r="N13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1485,8 +1500,9 @@
       <c r="N14" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1529,8 +1545,9 @@
       <c r="N15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1573,8 +1590,9 @@
       <c r="N16" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1635,9 @@
       <c r="N17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1661,8 +1680,9 @@
       <c r="N18" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1705,8 +1725,9 @@
       <c r="N19" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1749,8 +1770,9 @@
       <c r="N20" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1793,8 +1815,9 @@
       <c r="N21" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1837,8 +1860,9 @@
       <c r="N22" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1881,8 +1905,9 @@
       <c r="N23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1925,8 +1950,9 @@
       <c r="N24" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1969,8 +1995,9 @@
       <c r="N25" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2013,8 +2040,9 @@
       <c r="N26" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -2057,8 +2085,9 @@
       <c r="N27" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -2101,8 +2130,9 @@
       <c r="N28" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -2145,8 +2175,9 @@
       <c r="N29" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -2189,8 +2220,9 @@
       <c r="N30" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -2233,8 +2265,9 @@
       <c r="N31" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -2277,8 +2310,9 @@
       <c r="N32" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -2321,8 +2355,9 @@
       <c r="N33" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -2365,8 +2400,9 @@
       <c r="N34" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -2409,8 +2445,9 @@
       <c r="N35" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -2453,8 +2490,9 @@
       <c r="N36" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -2497,8 +2535,9 @@
       <c r="N37" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -2541,8 +2580,9 @@
       <c r="N38" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -2585,8 +2625,9 @@
       <c r="N39" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -2629,8 +2670,9 @@
       <c r="N40" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -2673,8 +2715,9 @@
       <c r="N41" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -2717,8 +2760,9 @@
       <c r="N42" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -2761,8 +2805,9 @@
       <c r="N43" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -2805,8 +2850,9 @@
       <c r="N44" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -2849,8 +2895,9 @@
       <c r="N45" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -2893,8 +2940,9 @@
       <c r="N46" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -2937,8 +2985,9 @@
       <c r="N47" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -2981,8 +3030,9 @@
       <c r="N48" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>115</v>
       </c>
@@ -3025,8 +3075,9 @@
       <c r="N49" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>115</v>
       </c>
@@ -3069,8 +3120,9 @@
       <c r="N50" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>115</v>
       </c>
@@ -3113,8 +3165,9 @@
       <c r="N51" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>122</v>
       </c>
@@ -3157,8 +3210,9 @@
       <c r="N52" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>122</v>
       </c>
@@ -3201,8 +3255,9 @@
       <c r="N53" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>122</v>
       </c>
@@ -3245,8 +3300,9 @@
       <c r="N54" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
@@ -3289,8 +3345,9 @@
       <c r="N55" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>122</v>
       </c>
@@ -3333,8 +3390,9 @@
       <c r="N56" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>122</v>
       </c>
@@ -3377,8 +3435,9 @@
       <c r="N57" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>122</v>
       </c>
@@ -3421,8 +3480,9 @@
       <c r="N58" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
@@ -3465,8 +3525,9 @@
       <c r="N59" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
@@ -3509,8 +3570,9 @@
       <c r="N60" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
@@ -3553,8 +3615,9 @@
       <c r="N61" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -3597,8 +3660,9 @@
       <c r="N62" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -3641,8 +3705,9 @@
       <c r="N63" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>122</v>
       </c>
@@ -3685,8 +3750,9 @@
       <c r="N64" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>122</v>
       </c>
@@ -3729,8 +3795,9 @@
       <c r="N65" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>122</v>
       </c>
@@ -3773,8 +3840,9 @@
       <c r="N66" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>122</v>
       </c>
@@ -3817,8 +3885,9 @@
       <c r="N67" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>122</v>
       </c>
@@ -3861,8 +3930,9 @@
       <c r="N68" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>122</v>
       </c>
@@ -3905,8 +3975,9 @@
       <c r="N69" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>122</v>
       </c>
@@ -3949,8 +4020,9 @@
       <c r="N70" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>122</v>
       </c>
@@ -3993,8 +4065,9 @@
       <c r="N71" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>122</v>
       </c>
@@ -4037,8 +4110,9 @@
       <c r="N72" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>122</v>
       </c>
@@ -4081,8 +4155,9 @@
       <c r="N73" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>122</v>
       </c>
@@ -4125,8 +4200,9 @@
       <c r="N74" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>122</v>
       </c>
@@ -4169,8 +4245,9 @@
       <c r="N75" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>122</v>
       </c>
@@ -4213,8 +4290,9 @@
       <c r="N76" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>122</v>
       </c>
@@ -4257,8 +4335,9 @@
       <c r="N77" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>122</v>
       </c>
@@ -4301,8 +4380,9 @@
       <c r="N78" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>122</v>
       </c>
@@ -4345,8 +4425,9 @@
       <c r="N79" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>122</v>
       </c>
@@ -4389,8 +4470,9 @@
       <c r="N80" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>122</v>
       </c>
@@ -4433,8 +4515,9 @@
       <c r="N81" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>122</v>
       </c>
@@ -4477,8 +4560,9 @@
       <c r="N82" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>122</v>
       </c>
@@ -4521,8 +4605,9 @@
       <c r="N83" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>122</v>
       </c>
@@ -4565,8 +4650,9 @@
       <c r="N84" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>128</v>
       </c>
@@ -4609,8 +4695,9 @@
       <c r="N85" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>128</v>
       </c>
@@ -4653,8 +4740,9 @@
       <c r="N86" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>128</v>
       </c>
@@ -4697,8 +4785,9 @@
       <c r="N87" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>128</v>
       </c>
@@ -4741,8 +4830,9 @@
       <c r="N88" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>128</v>
       </c>
@@ -4785,8 +4875,9 @@
       <c r="N89" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>128</v>
       </c>
@@ -4829,8 +4920,9 @@
       <c r="N90" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>129</v>
       </c>
@@ -4873,8 +4965,9 @@
       <c r="N91" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>129</v>
       </c>
@@ -4917,8 +5010,9 @@
       <c r="N92" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>129</v>
       </c>
@@ -4961,8 +5055,9 @@
       <c r="N93" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>129</v>
       </c>
@@ -5005,8 +5100,9 @@
       <c r="N94" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>129</v>
       </c>
@@ -5049,8 +5145,9 @@
       <c r="N95" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>129</v>
       </c>
@@ -5093,8 +5190,9 @@
       <c r="N96" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>129</v>
       </c>
@@ -5137,8 +5235,9 @@
       <c r="N97" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>129</v>
       </c>
@@ -5181,8 +5280,9 @@
       <c r="N98" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>129</v>
       </c>
@@ -5225,8 +5325,9 @@
       <c r="N99" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>129</v>
       </c>
@@ -5269,8 +5370,9 @@
       <c r="N100" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>129</v>
       </c>
@@ -5313,8 +5415,9 @@
       <c r="N101" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>129</v>
       </c>
@@ -5357,8 +5460,9 @@
       <c r="N102" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>129</v>
       </c>
@@ -5401,8 +5505,9 @@
       <c r="N103" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" s="3"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>129</v>
       </c>
@@ -5445,8 +5550,9 @@
       <c r="N104" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104" s="3"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>129</v>
       </c>
@@ -5489,8 +5595,9 @@
       <c r="N105" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105" s="3"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>129</v>
       </c>
@@ -5533,8 +5640,9 @@
       <c r="N106" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106" s="3"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>129</v>
       </c>
@@ -5577,8 +5685,9 @@
       <c r="N107" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="3"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>129</v>
       </c>
@@ -5621,8 +5730,9 @@
       <c r="N108" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" s="3"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>129</v>
       </c>
@@ -5665,8 +5775,9 @@
       <c r="N109" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109" s="3"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>129</v>
       </c>
@@ -5709,8 +5820,9 @@
       <c r="N110" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110" s="3"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>129</v>
       </c>
@@ -5753,8 +5865,9 @@
       <c r="N111" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111" s="3"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5797,8 +5910,9 @@
       <c r="N112" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="3"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>129</v>
       </c>
@@ -5841,8 +5955,9 @@
       <c r="N113" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="3"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>129</v>
       </c>
@@ -5885,8 +6000,9 @@
       <c r="N114" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="3"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>129</v>
       </c>
@@ -5929,8 +6045,9 @@
       <c r="N115" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115" s="3"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>129</v>
       </c>
@@ -5973,8 +6090,9 @@
       <c r="N116" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" s="3"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
@@ -6017,8 +6135,9 @@
       <c r="N117" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="3"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>129</v>
       </c>
@@ -6061,8 +6180,9 @@
       <c r="N118" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="3"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -6105,8 +6225,9 @@
       <c r="N119" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="3"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
@@ -6149,8 +6270,9 @@
       <c r="N120" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="3"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>129</v>
       </c>
@@ -6193,8 +6315,9 @@
       <c r="N121" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" s="3"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>129</v>
       </c>
@@ -6237,8 +6360,9 @@
       <c r="N122" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="3"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>129</v>
       </c>
@@ -6281,8 +6405,9 @@
       <c r="N123" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="3"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>129</v>
       </c>
@@ -6325,8 +6450,9 @@
       <c r="N124" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="3"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
@@ -6369,8 +6495,9 @@
       <c r="N125" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="3"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -6413,8 +6540,9 @@
       <c r="N126" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="3"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -6457,8 +6585,9 @@
       <c r="N127" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="3"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -6501,8 +6630,9 @@
       <c r="N128" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128" s="3"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -6545,8 +6675,9 @@
       <c r="N129" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129" s="3"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -6589,8 +6720,9 @@
       <c r="N130" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
@@ -6633,8 +6765,9 @@
       <c r="N131" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="3"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -6677,8 +6810,9 @@
       <c r="N132" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="3"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -6721,8 +6855,9 @@
       <c r="N133" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133" s="3"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>131</v>
       </c>
@@ -6765,8 +6900,9 @@
       <c r="N134" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134" s="3"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>131</v>
       </c>
@@ -6809,8 +6945,9 @@
       <c r="N135" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" s="3"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>131</v>
       </c>
@@ -6853,8 +6990,9 @@
       <c r="N136" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="3"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>131</v>
       </c>
@@ -6897,8 +7035,9 @@
       <c r="N137" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137" s="3"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>131</v>
       </c>
@@ -6941,8 +7080,9 @@
       <c r="N138" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138" s="3"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>131</v>
       </c>
@@ -6985,8 +7125,9 @@
       <c r="N139" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="3"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>131</v>
       </c>
@@ -7029,8 +7170,9 @@
       <c r="N140" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="3"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>131</v>
       </c>
@@ -7073,8 +7215,9 @@
       <c r="N141" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141" s="3"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>131</v>
       </c>
@@ -7117,8 +7260,9 @@
       <c r="N142" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142" s="3"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>131</v>
       </c>
@@ -7161,8 +7305,9 @@
       <c r="N143" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143" s="3"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>131</v>
       </c>
@@ -7205,8 +7350,9 @@
       <c r="N144" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144" s="3"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>131</v>
       </c>
@@ -7249,8 +7395,9 @@
       <c r="N145" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145" s="3"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>131</v>
       </c>
@@ -7293,8 +7440,9 @@
       <c r="N146" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146" s="3"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>131</v>
       </c>
@@ -7337,8 +7485,9 @@
       <c r="N147" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147" s="3"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>131</v>
       </c>
@@ -7381,8 +7530,9 @@
       <c r="N148" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148" s="3"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>131</v>
       </c>
@@ -7425,8 +7575,9 @@
       <c r="N149" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149" s="3"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>131</v>
       </c>
@@ -7469,8 +7620,9 @@
       <c r="N150" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150" s="3"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>131</v>
       </c>
@@ -7513,8 +7665,9 @@
       <c r="N151" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151" s="3"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>132</v>
       </c>
@@ -7557,8 +7710,9 @@
       <c r="N152" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152" s="3"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>132</v>
       </c>
@@ -7601,8 +7755,9 @@
       <c r="N153" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153" s="3"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>132</v>
       </c>
@@ -7645,8 +7800,9 @@
       <c r="N154" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154" s="3"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>132</v>
       </c>
@@ -7689,8 +7845,9 @@
       <c r="N155" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155" s="3"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>132</v>
       </c>
@@ -7733,8 +7890,9 @@
       <c r="N156" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156" s="3"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>132</v>
       </c>
@@ -7777,8 +7935,9 @@
       <c r="N157" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157" s="3"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>132</v>
       </c>
@@ -7821,8 +7980,9 @@
       <c r="N158" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158" s="3"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>132</v>
       </c>
@@ -7865,8 +8025,9 @@
       <c r="N159" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>132</v>
       </c>
@@ -7909,8 +8070,9 @@
       <c r="N160" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160" s="3"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>132</v>
       </c>
@@ -7953,8 +8115,9 @@
       <c r="N161" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161" s="3"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>132</v>
       </c>
@@ -7997,8 +8160,9 @@
       <c r="N162" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O162" s="3"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>132</v>
       </c>
@@ -8041,8 +8205,9 @@
       <c r="N163" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163" s="3"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>132</v>
       </c>
@@ -8085,8 +8250,9 @@
       <c r="N164" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164" s="3"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>132</v>
       </c>
@@ -8129,8 +8295,9 @@
       <c r="N165" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O165" s="3"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>132</v>
       </c>
@@ -8173,8 +8340,9 @@
       <c r="N166" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166" s="3"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>132</v>
       </c>
@@ -8217,8 +8385,9 @@
       <c r="N167" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167" s="3"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>132</v>
       </c>
@@ -8261,8 +8430,9 @@
       <c r="N168" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168" s="3"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>132</v>
       </c>
@@ -8305,8 +8475,9 @@
       <c r="N169" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169" s="3"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>132</v>
       </c>
@@ -8349,8 +8520,9 @@
       <c r="N170" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170" s="3"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>132</v>
       </c>
@@ -8393,8 +8565,9 @@
       <c r="N171" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171" s="3"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>132</v>
       </c>
@@ -8437,8 +8610,9 @@
       <c r="N172" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172" s="3"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>132</v>
       </c>
@@ -8481,8 +8655,9 @@
       <c r="N173" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173" s="3"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>132</v>
       </c>
@@ -8525,8 +8700,9 @@
       <c r="N174" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174" s="3"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>132</v>
       </c>
@@ -8569,8 +8745,9 @@
       <c r="N175" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175" s="3"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>132</v>
       </c>
@@ -8613,8 +8790,9 @@
       <c r="N176" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176" s="3"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>132</v>
       </c>
@@ -8657,8 +8835,9 @@
       <c r="N177" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177" s="3"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>132</v>
       </c>
@@ -8701,8 +8880,9 @@
       <c r="N178" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178" s="3"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>132</v>
       </c>
@@ -8745,8 +8925,9 @@
       <c r="N179" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179" s="3"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>132</v>
       </c>
@@ -8789,8 +8970,9 @@
       <c r="N180" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180" s="3"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>132</v>
       </c>
@@ -8833,8 +9015,9 @@
       <c r="N181" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181" s="3"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>132</v>
       </c>
@@ -8877,8 +9060,9 @@
       <c r="N182" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182" s="3"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>132</v>
       </c>
@@ -8921,8 +9105,9 @@
       <c r="N183" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183" s="3"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>132</v>
       </c>
@@ -8965,8 +9150,9 @@
       <c r="N184" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184" s="3"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>132</v>
       </c>
@@ -9009,8 +9195,9 @@
       <c r="N185" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185" s="3"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>132</v>
       </c>
@@ -9053,8 +9240,9 @@
       <c r="N186" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186" s="3"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>132</v>
       </c>
@@ -9097,8 +9285,9 @@
       <c r="N187" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O187" s="3"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>132</v>
       </c>
@@ -9141,8 +9330,9 @@
       <c r="N188" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188" s="3"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>132</v>
       </c>
@@ -9185,8 +9375,9 @@
       <c r="N189" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189" s="3"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>132</v>
       </c>
@@ -9229,8 +9420,9 @@
       <c r="N190" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190" s="3"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>132</v>
       </c>
@@ -9273,8 +9465,9 @@
       <c r="N191" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191" s="3"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>132</v>
       </c>
@@ -9317,8 +9510,9 @@
       <c r="N192" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192" s="3"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>132</v>
       </c>
@@ -9361,8 +9555,9 @@
       <c r="N193" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193" s="3"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>132</v>
       </c>
@@ -9405,8 +9600,9 @@
       <c r="N194" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194" s="3"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>132</v>
       </c>
@@ -9449,8 +9645,9 @@
       <c r="N195" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195" s="3"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>132</v>
       </c>
@@ -9493,8 +9690,9 @@
       <c r="N196" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196" s="3"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>132</v>
       </c>
@@ -9537,8 +9735,9 @@
       <c r="N197" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197" s="3"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>132</v>
       </c>
@@ -9581,8 +9780,9 @@
       <c r="N198" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198" s="3"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>132</v>
       </c>
@@ -9625,8 +9825,9 @@
       <c r="N199" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199" s="3"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>132</v>
       </c>
@@ -9669,8 +9870,9 @@
       <c r="N200" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200" s="3"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>132</v>
       </c>
@@ -9713,8 +9915,9 @@
       <c r="N201" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201" s="3"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>132</v>
       </c>
@@ -9757,8 +9960,9 @@
       <c r="N202" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202" s="3"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>132</v>
       </c>
@@ -9801,8 +10005,9 @@
       <c r="N203" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203" s="3"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>132</v>
       </c>
@@ -9845,8 +10050,9 @@
       <c r="N204" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O204" s="3"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>132</v>
       </c>
@@ -9889,8 +10095,9 @@
       <c r="N205" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205" s="3"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>132</v>
       </c>
@@ -9933,8 +10140,9 @@
       <c r="N206" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O206" s="3"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>132</v>
       </c>
@@ -9977,8 +10185,9 @@
       <c r="N207" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207" s="3"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>132</v>
       </c>
@@ -10021,8 +10230,9 @@
       <c r="N208" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O208" s="3"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>132</v>
       </c>
@@ -10065,8 +10275,9 @@
       <c r="N209" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O209" s="3"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>132</v>
       </c>
@@ -10109,8 +10320,9 @@
       <c r="N210" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O210" s="3"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>132</v>
       </c>
@@ -10153,8 +10365,9 @@
       <c r="N211" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O211" s="3"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>132</v>
       </c>
@@ -10197,8 +10410,9 @@
       <c r="N212" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O212" s="3"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>132</v>
       </c>
@@ -10241,8 +10455,9 @@
       <c r="N213" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O213" s="3"/>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>132</v>
       </c>
@@ -10285,8 +10500,9 @@
       <c r="N214" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O214" s="3"/>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>132</v>
       </c>
@@ -10329,8 +10545,9 @@
       <c r="N215" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O215" s="3"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>132</v>
       </c>
@@ -10373,8 +10590,9 @@
       <c r="N216" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O216" s="3"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>132</v>
       </c>
@@ -10417,8 +10635,9 @@
       <c r="N217" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O217" s="3"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>132</v>
       </c>
@@ -10461,8 +10680,9 @@
       <c r="N218" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O218" s="3"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>132</v>
       </c>
@@ -10505,8 +10725,9 @@
       <c r="N219" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O219" s="3"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>132</v>
       </c>
@@ -10549,8 +10770,9 @@
       <c r="N220" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O220" s="3"/>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>132</v>
       </c>
@@ -10593,8 +10815,9 @@
       <c r="N221" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O221" s="3"/>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>132</v>
       </c>
@@ -10637,8 +10860,9 @@
       <c r="N222" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O222" s="3"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>132</v>
       </c>
@@ -10681,8 +10905,9 @@
       <c r="N223" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O223" s="3"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>132</v>
       </c>
@@ -10725,8 +10950,9 @@
       <c r="N224" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O224" s="3"/>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>132</v>
       </c>
@@ -10769,8 +10995,9 @@
       <c r="N225" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O225" s="3"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>132</v>
       </c>
@@ -10813,8 +11040,9 @@
       <c r="N226" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O226" s="3"/>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>132</v>
       </c>
@@ -10857,8 +11085,9 @@
       <c r="N227" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O227" s="3"/>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>132</v>
       </c>
@@ -10901,8 +11130,9 @@
       <c r="N228" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O228" s="3"/>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>132</v>
       </c>
@@ -10945,8 +11175,9 @@
       <c r="N229" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O229" s="3"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>132</v>
       </c>
@@ -10989,8 +11220,9 @@
       <c r="N230" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O230" s="3"/>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>132</v>
       </c>
@@ -11033,8 +11265,9 @@
       <c r="N231" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O231" s="3"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>132</v>
       </c>
@@ -11077,8 +11310,9 @@
       <c r="N232" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O232" s="3"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>132</v>
       </c>
@@ -11121,8 +11355,9 @@
       <c r="N233" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O233" s="3"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>132</v>
       </c>
@@ -11165,8 +11400,9 @@
       <c r="N234" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O234" s="3"/>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>132</v>
       </c>
@@ -11209,8 +11445,9 @@
       <c r="N235" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O235" s="3"/>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>132</v>
       </c>
@@ -11253,8 +11490,9 @@
       <c r="N236" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O236" s="3"/>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>132</v>
       </c>
@@ -11297,8 +11535,9 @@
       <c r="N237" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O237" s="3"/>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>132</v>
       </c>
@@ -11341,8 +11580,9 @@
       <c r="N238" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O238" s="3"/>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>132</v>
       </c>
@@ -11385,8 +11625,9 @@
       <c r="N239" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O239" s="3"/>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>132</v>
       </c>
@@ -11429,8 +11670,9 @@
       <c r="N240" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O240" s="3"/>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>132</v>
       </c>
@@ -11473,8 +11715,9 @@
       <c r="N241" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O241" s="3"/>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>132</v>
       </c>
@@ -11517,8 +11760,9 @@
       <c r="N242" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O242" s="3"/>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>132</v>
       </c>
@@ -11561,8 +11805,9 @@
       <c r="N243" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O243" s="3"/>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>132</v>
       </c>
@@ -11605,8 +11850,9 @@
       <c r="N244" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O244" s="3"/>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>132</v>
       </c>
@@ -11649,8 +11895,9 @@
       <c r="N245" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O245" s="3"/>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>132</v>
       </c>
@@ -11693,8 +11940,9 @@
       <c r="N246" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O246" s="3"/>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>132</v>
       </c>
@@ -11737,8 +11985,9 @@
       <c r="N247" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O247" s="3"/>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>132</v>
       </c>
@@ -11781,8 +12030,9 @@
       <c r="N248" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O248" s="3"/>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>132</v>
       </c>
@@ -11825,8 +12075,9 @@
       <c r="N249" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O249" s="3"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>132</v>
       </c>
@@ -11869,8 +12120,9 @@
       <c r="N250" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O250" s="3"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>132</v>
       </c>
@@ -11913,8 +12165,9 @@
       <c r="N251" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O251" s="3"/>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>132</v>
       </c>
@@ -11957,8 +12210,9 @@
       <c r="N252" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O252" s="3"/>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>132</v>
       </c>
@@ -12001,8 +12255,9 @@
       <c r="N253" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O253" s="3"/>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>134</v>
       </c>
@@ -12045,8 +12300,9 @@
       <c r="N254" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O254" s="3"/>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>134</v>
       </c>
@@ -12089,8 +12345,9 @@
       <c r="N255" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O255" s="3"/>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>134</v>
       </c>
@@ -12133,8 +12390,9 @@
       <c r="N256" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O256" s="3"/>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>134</v>
       </c>
@@ -12177,8 +12435,9 @@
       <c r="N257" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O257" s="3"/>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>134</v>
       </c>
@@ -12221,8 +12480,9 @@
       <c r="N258" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O258" s="3"/>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>134</v>
       </c>
@@ -12265,8 +12525,9 @@
       <c r="N259" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O259" s="3"/>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>134</v>
       </c>
@@ -12309,8 +12570,9 @@
       <c r="N260" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O260" s="3"/>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>134</v>
       </c>
@@ -12353,8 +12615,9 @@
       <c r="N261" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O261" s="3"/>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>134</v>
       </c>
@@ -12397,8 +12660,9 @@
       <c r="N262" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O262" s="3"/>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>134</v>
       </c>
@@ -12441,8 +12705,9 @@
       <c r="N263" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O263" s="3"/>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>134</v>
       </c>
@@ -12485,8 +12750,9 @@
       <c r="N264" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O264" s="3"/>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>134</v>
       </c>
@@ -12529,8 +12795,9 @@
       <c r="N265" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O265" s="3"/>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>134</v>
       </c>
@@ -12573,8 +12840,9 @@
       <c r="N266" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O266" s="3"/>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>134</v>
       </c>
@@ -12617,8 +12885,9 @@
       <c r="N267" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O267" s="3"/>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>134</v>
       </c>
@@ -12661,8 +12930,9 @@
       <c r="N268" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O268" s="3"/>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>134</v>
       </c>
@@ -12705,8 +12975,9 @@
       <c r="N269" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O269" s="3"/>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>134</v>
       </c>
@@ -12749,8 +13020,9 @@
       <c r="N270" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O270" s="3"/>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>134</v>
       </c>
@@ -12793,8 +13065,9 @@
       <c r="N271" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O271" s="3"/>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>134</v>
       </c>
@@ -12837,8 +13110,9 @@
       <c r="N272" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O272" s="3"/>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>134</v>
       </c>
@@ -12881,8 +13155,9 @@
       <c r="N273" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O273" s="3"/>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>134</v>
       </c>
@@ -12925,8 +13200,9 @@
       <c r="N274" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O274" s="3"/>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>134</v>
       </c>
@@ -12969,8 +13245,9 @@
       <c r="N275" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O275" s="3"/>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>134</v>
       </c>
@@ -13013,8 +13290,9 @@
       <c r="N276" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O276" s="3"/>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>134</v>
       </c>
@@ -13057,8 +13335,9 @@
       <c r="N277" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O277" s="3"/>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>134</v>
       </c>
@@ -13101,8 +13380,9 @@
       <c r="N278" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O278" s="3"/>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>134</v>
       </c>
@@ -13145,8 +13425,9 @@
       <c r="N279" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O279" s="3"/>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>134</v>
       </c>
@@ -13189,8 +13470,9 @@
       <c r="N280" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O280" s="3"/>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>134</v>
       </c>
@@ -13233,8 +13515,9 @@
       <c r="N281" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O281" s="3"/>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>134</v>
       </c>
@@ -13277,8 +13560,9 @@
       <c r="N282" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O282" s="3"/>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>134</v>
       </c>
@@ -13321,8 +13605,9 @@
       <c r="N283" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O283" s="3"/>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>134</v>
       </c>
@@ -13365,8 +13650,9 @@
       <c r="N284" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O284" s="3"/>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>134</v>
       </c>
@@ -13409,8 +13695,9 @@
       <c r="N285" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O285" s="3"/>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>134</v>
       </c>
@@ -13453,8 +13740,9 @@
       <c r="N286" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O286" s="3"/>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>134</v>
       </c>
@@ -13497,8 +13785,9 @@
       <c r="N287" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O287" s="3"/>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>134</v>
       </c>
@@ -13541,8 +13830,9 @@
       <c r="N288" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O288" s="3"/>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>134</v>
       </c>
@@ -13585,8 +13875,9 @@
       <c r="N289" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O289" s="3"/>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>137</v>
       </c>
@@ -13629,8 +13920,9 @@
       <c r="N290" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O290" s="3"/>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>137</v>
       </c>
@@ -13673,8 +13965,9 @@
       <c r="N291" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O291" s="3"/>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>137</v>
       </c>
@@ -13717,8 +14010,9 @@
       <c r="N292" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O292" s="3"/>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>137</v>
       </c>
@@ -13761,8 +14055,9 @@
       <c r="N293" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O293" s="3"/>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>137</v>
       </c>
@@ -13805,8 +14100,9 @@
       <c r="N294" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O294" s="3"/>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>137</v>
       </c>
@@ -13849,8 +14145,9 @@
       <c r="N295" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O295" s="3"/>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>137</v>
       </c>
@@ -13893,8 +14190,9 @@
       <c r="N296" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O296" s="3"/>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>137</v>
       </c>
@@ -13937,8 +14235,9 @@
       <c r="N297" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O297" s="3"/>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>137</v>
       </c>
@@ -13981,8 +14280,9 @@
       <c r="N298" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O298" s="3"/>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>137</v>
       </c>
@@ -14025,8 +14325,9 @@
       <c r="N299" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O299" s="3"/>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>137</v>
       </c>
@@ -14069,8 +14370,9 @@
       <c r="N300" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O300" s="3"/>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>137</v>
       </c>
@@ -14113,8 +14415,9 @@
       <c r="N301" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O301" s="3"/>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>137</v>
       </c>
@@ -14157,8 +14460,9 @@
       <c r="N302" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O302" s="3"/>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>137</v>
       </c>
@@ -14201,8 +14505,9 @@
       <c r="N303" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O303" s="3"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>137</v>
       </c>
@@ -14245,8 +14550,9 @@
       <c r="N304" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O304" s="3"/>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>137</v>
       </c>
@@ -14289,8 +14595,9 @@
       <c r="N305" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O305" s="3"/>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>137</v>
       </c>
@@ -14333,8 +14640,9 @@
       <c r="N306" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O306" s="3"/>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>137</v>
       </c>
@@ -14377,8 +14685,9 @@
       <c r="N307" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O307" s="3"/>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>137</v>
       </c>
@@ -14421,8 +14730,9 @@
       <c r="N308" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O308" s="3"/>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>137</v>
       </c>
@@ -14465,8 +14775,9 @@
       <c r="N309" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O309" s="3"/>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>137</v>
       </c>
@@ -14509,8 +14820,9 @@
       <c r="N310" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O310" s="3"/>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>137</v>
       </c>
@@ -14553,8 +14865,9 @@
       <c r="N311" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O311" s="3"/>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>137</v>
       </c>
@@ -14597,8 +14910,9 @@
       <c r="N312" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O312" s="3"/>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>137</v>
       </c>
@@ -14641,8 +14955,9 @@
       <c r="N313" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O313" s="3"/>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>137</v>
       </c>
@@ -14685,8 +15000,9 @@
       <c r="N314" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O314" s="3"/>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>137</v>
       </c>
@@ -14729,8 +15045,9 @@
       <c r="N315" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O315" s="3"/>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>137</v>
       </c>
@@ -14773,8 +15090,9 @@
       <c r="N316" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O316" s="3"/>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>137</v>
       </c>
@@ -14817,8 +15135,9 @@
       <c r="N317" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O317" s="3"/>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>137</v>
       </c>
@@ -14861,8 +15180,9 @@
       <c r="N318" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O318" s="3"/>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>137</v>
       </c>
@@ -14905,8 +15225,9 @@
       <c r="N319" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O319" s="3"/>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>137</v>
       </c>
@@ -14949,8 +15270,9 @@
       <c r="N320" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O320" s="3"/>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>137</v>
       </c>
@@ -14993,8 +15315,9 @@
       <c r="N321" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O321" s="3"/>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>137</v>
       </c>
@@ -15037,8 +15360,9 @@
       <c r="N322" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O322" s="3"/>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>137</v>
       </c>
@@ -15081,8 +15405,9 @@
       <c r="N323" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O323" s="3"/>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>140</v>
       </c>
@@ -15125,8 +15450,9 @@
       <c r="N324" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O324" s="3"/>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>140</v>
       </c>
@@ -15169,8 +15495,9 @@
       <c r="N325" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O325" s="3"/>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>140</v>
       </c>
@@ -15213,8 +15540,9 @@
       <c r="N326" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O326" s="3"/>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>140</v>
       </c>
@@ -15257,8 +15585,9 @@
       <c r="N327" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O327" s="3"/>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>140</v>
       </c>
@@ -15301,8 +15630,9 @@
       <c r="N328" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O328" s="3"/>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>140</v>
       </c>
@@ -15345,8 +15675,9 @@
       <c r="N329" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O329" s="3"/>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>140</v>
       </c>
@@ -15389,8 +15720,9 @@
       <c r="N330" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O330" s="3"/>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>140</v>
       </c>
@@ -15433,8 +15765,9 @@
       <c r="N331" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O331" s="3"/>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>140</v>
       </c>
@@ -15477,8 +15810,9 @@
       <c r="N332" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O332" s="3"/>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>140</v>
       </c>
@@ -15521,8 +15855,9 @@
       <c r="N333" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O333" s="3"/>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>140</v>
       </c>
@@ -15565,8 +15900,9 @@
       <c r="N334" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O334" s="3"/>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>140</v>
       </c>
@@ -15609,8 +15945,9 @@
       <c r="N335" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O335" s="3"/>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>140</v>
       </c>
@@ -15653,8 +15990,9 @@
       <c r="N336" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O336" s="3"/>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>140</v>
       </c>
@@ -15697,8 +16035,9 @@
       <c r="N337" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O337" s="3"/>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>140</v>
       </c>
@@ -15741,8 +16080,9 @@
       <c r="N338" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O338" s="3"/>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>140</v>
       </c>
@@ -15785,8 +16125,9 @@
       <c r="N339" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O339" s="3"/>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>140</v>
       </c>
@@ -15829,8 +16170,9 @@
       <c r="N340" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O340" s="3"/>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>140</v>
       </c>
@@ -15873,8 +16215,9 @@
       <c r="N341" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O341" s="3"/>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>140</v>
       </c>
@@ -15917,8 +16260,9 @@
       <c r="N342" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O342" s="3"/>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>140</v>
       </c>
@@ -15961,8 +16305,9 @@
       <c r="N343" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O343" s="3"/>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>140</v>
       </c>
@@ -16005,8 +16350,9 @@
       <c r="N344" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O344" s="3"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>140</v>
       </c>
@@ -16049,8 +16395,9 @@
       <c r="N345" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O345" s="3"/>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>140</v>
       </c>
@@ -16093,8 +16440,9 @@
       <c r="N346" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O346" s="3"/>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>140</v>
       </c>
@@ -16137,8 +16485,9 @@
       <c r="N347" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O347" s="3"/>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>140</v>
       </c>
@@ -16181,8 +16530,9 @@
       <c r="N348" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O348" s="3"/>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>140</v>
       </c>
@@ -16225,8 +16575,9 @@
       <c r="N349" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O349" s="3"/>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>140</v>
       </c>
@@ -16269,8 +16620,9 @@
       <c r="N350" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O350" s="3"/>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>140</v>
       </c>
@@ -16313,8 +16665,9 @@
       <c r="N351" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O351" s="3"/>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>140</v>
       </c>
@@ -16357,8 +16710,9 @@
       <c r="N352" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O352" s="3"/>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>140</v>
       </c>
@@ -16401,8 +16755,9 @@
       <c r="N353" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O353" s="3"/>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>140</v>
       </c>
@@ -16445,8 +16800,9 @@
       <c r="N354" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O354" s="3"/>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>140</v>
       </c>
@@ -16489,8 +16845,9 @@
       <c r="N355" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O355" s="3"/>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>140</v>
       </c>
@@ -16533,8 +16890,9 @@
       <c r="N356" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O356" s="3"/>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>140</v>
       </c>
@@ -16577,8 +16935,9 @@
       <c r="N357" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O357" s="3"/>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>140</v>
       </c>
@@ -16621,8 +16980,9 @@
       <c r="N358" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O358" s="3"/>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>140</v>
       </c>
@@ -16665,8 +17025,9 @@
       <c r="N359" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O359" s="3"/>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>140</v>
       </c>
@@ -16709,8 +17070,9 @@
       <c r="N360" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O360" s="3"/>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>140</v>
       </c>
@@ -16753,8 +17115,9 @@
       <c r="N361" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O361" s="3"/>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>140</v>
       </c>
@@ -16797,8 +17160,9 @@
       <c r="N362" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O362" s="3"/>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>140</v>
       </c>
@@ -16841,8 +17205,9 @@
       <c r="N363" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O363" s="3"/>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>140</v>
       </c>
@@ -16885,8 +17250,9 @@
       <c r="N364" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O364" s="3"/>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>140</v>
       </c>
@@ -16929,8 +17295,9 @@
       <c r="N365" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O365" s="3"/>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>140</v>
       </c>
@@ -16973,8 +17340,9 @@
       <c r="N366" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O366" s="3"/>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>140</v>
       </c>
@@ -17017,8 +17385,9 @@
       <c r="N367" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O367" s="3"/>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>140</v>
       </c>
@@ -17061,8 +17430,9 @@
       <c r="N368" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O368" s="3"/>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>140</v>
       </c>
@@ -17105,8 +17475,9 @@
       <c r="N369" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O369" s="3"/>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>140</v>
       </c>
@@ -17149,8 +17520,9 @@
       <c r="N370" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O370" s="3"/>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>140</v>
       </c>
@@ -17193,8 +17565,9 @@
       <c r="N371" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O371" s="3"/>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>140</v>
       </c>
@@ -17237,8 +17610,9 @@
       <c r="N372" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O372" s="3"/>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>140</v>
       </c>
@@ -17281,8 +17655,9 @@
       <c r="N373" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O373" s="3"/>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>140</v>
       </c>
@@ -17325,8 +17700,9 @@
       <c r="N374" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O374" s="3"/>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>140</v>
       </c>
@@ -17369,8 +17745,9 @@
       <c r="N375" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O375" s="3"/>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>140</v>
       </c>
@@ -17413,8 +17790,9 @@
       <c r="N376" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O376" s="3"/>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>140</v>
       </c>
@@ -17457,8 +17835,9 @@
       <c r="N377" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O377" s="3"/>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>140</v>
       </c>
@@ -17501,8 +17880,9 @@
       <c r="N378" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O378" s="3"/>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>140</v>
       </c>
@@ -17545,8 +17925,9 @@
       <c r="N379" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O379" s="3"/>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>140</v>
       </c>
@@ -17589,8 +17970,9 @@
       <c r="N380" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O380" s="3"/>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>140</v>
       </c>
@@ -17633,8 +18015,9 @@
       <c r="N381" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O381" s="3"/>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>140</v>
       </c>
@@ -17677,8 +18060,9 @@
       <c r="N382" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O382" s="3"/>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>140</v>
       </c>
@@ -17721,8 +18105,9 @@
       <c r="N383" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O383" s="3"/>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>140</v>
       </c>
@@ -17765,8 +18150,9 @@
       <c r="N384" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O384" s="3"/>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>140</v>
       </c>
@@ -17809,8 +18195,9 @@
       <c r="N385" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O385" s="3"/>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>140</v>
       </c>
@@ -17853,8 +18240,9 @@
       <c r="N386" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O386" s="3"/>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>140</v>
       </c>
@@ -17897,8 +18285,9 @@
       <c r="N387" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O387" s="3"/>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>140</v>
       </c>
@@ -17941,8 +18330,9 @@
       <c r="N388" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O388" s="3"/>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>140</v>
       </c>
@@ -17985,8 +18375,9 @@
       <c r="N389" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O389" s="3"/>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>140</v>
       </c>
@@ -18029,8 +18420,9 @@
       <c r="N390" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O390" s="3"/>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>140</v>
       </c>
@@ -18073,8 +18465,9 @@
       <c r="N391" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O391" s="3"/>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>140</v>
       </c>
@@ -18117,8 +18510,9 @@
       <c r="N392" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O392" s="3"/>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>140</v>
       </c>
@@ -18161,8 +18555,9 @@
       <c r="N393" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O393" s="3"/>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>140</v>
       </c>
@@ -18205,8 +18600,9 @@
       <c r="N394" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O394" s="3"/>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>140</v>
       </c>
@@ -18249,8 +18645,9 @@
       <c r="N395" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O395" s="3"/>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>140</v>
       </c>
@@ -18293,8 +18690,9 @@
       <c r="N396" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O396" s="3"/>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>140</v>
       </c>
@@ -18337,8 +18735,9 @@
       <c r="N397" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O397" s="3"/>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>140</v>
       </c>
@@ -18381,8 +18780,9 @@
       <c r="N398" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O398" s="3"/>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>140</v>
       </c>
@@ -18425,8 +18825,9 @@
       <c r="N399" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O399" s="3"/>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>140</v>
       </c>
@@ -18469,8 +18870,9 @@
       <c r="N400" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O400" s="3"/>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>140</v>
       </c>
@@ -18513,8 +18915,9 @@
       <c r="N401" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O401" s="3"/>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>140</v>
       </c>
@@ -18557,8 +18960,9 @@
       <c r="N402" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O402" s="3"/>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>140</v>
       </c>
@@ -18601,8 +19005,9 @@
       <c r="N403" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O403" s="3"/>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>140</v>
       </c>
@@ -18645,8 +19050,9 @@
       <c r="N404" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O404" s="3"/>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>140</v>
       </c>
@@ -18689,8 +19095,9 @@
       <c r="N405" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O405" s="3"/>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>140</v>
       </c>
@@ -18733,8 +19140,9 @@
       <c r="N406" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O406" s="3"/>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>140</v>
       </c>
@@ -18777,8 +19185,9 @@
       <c r="N407" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O407" s="3"/>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>140</v>
       </c>
@@ -18821,8 +19230,9 @@
       <c r="N408" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O408" s="3"/>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>140</v>
       </c>
@@ -18865,8 +19275,9 @@
       <c r="N409" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O409" s="3"/>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>142</v>
       </c>
@@ -18909,8 +19320,9 @@
       <c r="N410" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O410" s="3"/>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>142</v>
       </c>
@@ -18953,8 +19365,9 @@
       <c r="N411" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O411" s="3"/>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>142</v>
       </c>
@@ -18997,8 +19410,9 @@
       <c r="N412" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O412" s="3"/>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>142</v>
       </c>
@@ -19041,8 +19455,9 @@
       <c r="N413" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O413" s="3"/>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>142</v>
       </c>
@@ -19085,8 +19500,9 @@
       <c r="N414" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O414" s="3"/>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>142</v>
       </c>
@@ -19129,8 +19545,9 @@
       <c r="N415" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O415" s="3"/>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>142</v>
       </c>
@@ -19173,8 +19590,9 @@
       <c r="N416" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O416" s="3"/>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>142</v>
       </c>
@@ -19217,8 +19635,9 @@
       <c r="N417" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O417" s="3"/>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>142</v>
       </c>
@@ -19261,8 +19680,9 @@
       <c r="N418" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O418" s="3"/>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>144</v>
       </c>
@@ -19305,8 +19725,9 @@
       <c r="N419" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O419" s="3"/>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>144</v>
       </c>
@@ -19349,8 +19770,9 @@
       <c r="N420" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O420" s="3"/>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>144</v>
       </c>
@@ -19393,8 +19815,9 @@
       <c r="N421" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O421" s="3"/>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>144</v>
       </c>
@@ -19437,8 +19860,9 @@
       <c r="N422" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O422" s="3"/>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>144</v>
       </c>
@@ -19481,8 +19905,9 @@
       <c r="N423" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O423" s="3"/>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>144</v>
       </c>
@@ -19525,8 +19950,9 @@
       <c r="N424" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O424" s="3"/>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>144</v>
       </c>
@@ -19569,8 +19995,9 @@
       <c r="N425" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O425" s="3"/>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>144</v>
       </c>
@@ -19613,8 +20040,9 @@
       <c r="N426" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O426" s="3"/>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>144</v>
       </c>
@@ -19657,8 +20085,9 @@
       <c r="N427" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O427" s="3"/>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>144</v>
       </c>
@@ -19701,8 +20130,9 @@
       <c r="N428" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O428" s="3"/>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>147</v>
       </c>
@@ -19745,8 +20175,9 @@
       <c r="N429" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O429" s="3"/>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>147</v>
       </c>
@@ -19789,8 +20220,9 @@
       <c r="N430" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O430" s="3"/>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>147</v>
       </c>
@@ -19833,8 +20265,9 @@
       <c r="N431" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O431" s="3"/>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>147</v>
       </c>
@@ -19877,8 +20310,9 @@
       <c r="N432" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O432" s="3"/>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>147</v>
       </c>
@@ -19921,8 +20355,9 @@
       <c r="N433" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O433" s="3"/>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>147</v>
       </c>
@@ -19965,8 +20400,9 @@
       <c r="N434" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O434" s="3"/>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>147</v>
       </c>
@@ -20009,8 +20445,9 @@
       <c r="N435" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O435" s="3"/>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>147</v>
       </c>
@@ -20053,8 +20490,9 @@
       <c r="N436" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O436" s="3"/>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>147</v>
       </c>
@@ -20097,8 +20535,9 @@
       <c r="N437" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O437" s="3"/>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>147</v>
       </c>
@@ -20141,8 +20580,9 @@
       <c r="N438" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O438" s="3"/>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>147</v>
       </c>
@@ -20185,8 +20625,9 @@
       <c r="N439" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O439" s="3"/>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>147</v>
       </c>
@@ -20229,8 +20670,9 @@
       <c r="N440" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O440" s="3"/>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>147</v>
       </c>
@@ -20273,8 +20715,9 @@
       <c r="N441" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O441" s="3"/>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>147</v>
       </c>
@@ -20317,8 +20760,9 @@
       <c r="N442" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O442" s="3"/>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>147</v>
       </c>
@@ -20361,8 +20805,9 @@
       <c r="N443" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O443" s="3"/>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>148</v>
       </c>
@@ -20405,8 +20850,9 @@
       <c r="N444" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O444" s="3"/>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>148</v>
       </c>
@@ -20449,8 +20895,9 @@
       <c r="N445" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O445" s="3"/>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>148</v>
       </c>
@@ -20493,8 +20940,9 @@
       <c r="N446" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O446" s="3"/>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>148</v>
       </c>
@@ -20537,8 +20985,9 @@
       <c r="N447" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O447" s="3"/>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>148</v>
       </c>
@@ -20581,8 +21030,9 @@
       <c r="N448" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O448" s="3"/>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>148</v>
       </c>
@@ -20625,8 +21075,9 @@
       <c r="N449" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O449" s="3"/>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>148</v>
       </c>
@@ -20669,8 +21120,9 @@
       <c r="N450" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O450" s="3"/>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>148</v>
       </c>
@@ -20713,8 +21165,9 @@
       <c r="N451" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O451" s="3"/>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>148</v>
       </c>
@@ -20757,8 +21210,9 @@
       <c r="N452" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O452" s="3"/>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>148</v>
       </c>
@@ -20801,8 +21255,9 @@
       <c r="N453" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O453" s="3"/>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>148</v>
       </c>
@@ -20845,8 +21300,9 @@
       <c r="N454" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O454" s="3"/>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>148</v>
       </c>
@@ -20889,8 +21345,9 @@
       <c r="N455" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O455" s="3"/>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>148</v>
       </c>
@@ -20933,8 +21390,9 @@
       <c r="N456" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O456" s="3"/>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>148</v>
       </c>
@@ -20977,8 +21435,9 @@
       <c r="N457" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O457" s="3"/>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>148</v>
       </c>
@@ -21021,8 +21480,9 @@
       <c r="N458" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O458" s="3"/>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>148</v>
       </c>
@@ -21065,8 +21525,9 @@
       <c r="N459" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O459" s="3"/>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>148</v>
       </c>
@@ -21109,8 +21570,9 @@
       <c r="N460" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O460" s="3"/>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>148</v>
       </c>
@@ -21153,8 +21615,9 @@
       <c r="N461" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O461" s="3"/>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>148</v>
       </c>
@@ -21197,8 +21660,9 @@
       <c r="N462" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O462" s="3"/>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>148</v>
       </c>
@@ -21241,8 +21705,9 @@
       <c r="N463" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O463" s="3"/>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>148</v>
       </c>
@@ -21285,8 +21750,9 @@
       <c r="N464" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O464" s="3"/>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>148</v>
       </c>
@@ -21329,8 +21795,9 @@
       <c r="N465" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O465" s="3"/>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>148</v>
       </c>
@@ -21373,8 +21840,9 @@
       <c r="N466" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O466" s="3"/>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>148</v>
       </c>
@@ -21417,8 +21885,9 @@
       <c r="N467" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O467" s="3"/>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>148</v>
       </c>
@@ -21461,8 +21930,9 @@
       <c r="N468" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O468" s="3"/>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>148</v>
       </c>
@@ -21505,8 +21975,9 @@
       <c r="N469" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O469" s="3"/>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>148</v>
       </c>
@@ -21549,8 +22020,9 @@
       <c r="N470" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O470" s="3"/>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>148</v>
       </c>
@@ -21593,8 +22065,9 @@
       <c r="N471" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O471" s="3"/>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>148</v>
       </c>
@@ -21637,8 +22110,9 @@
       <c r="N472" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O472" s="3"/>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>148</v>
       </c>
@@ -21681,8 +22155,9 @@
       <c r="N473" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O473" s="3"/>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>148</v>
       </c>
@@ -21725,8 +22200,9 @@
       <c r="N474" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O474" s="3"/>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>148</v>
       </c>
@@ -21769,8 +22245,9 @@
       <c r="N475" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O475" s="3"/>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>148</v>
       </c>
@@ -21813,8 +22290,9 @@
       <c r="N476" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O476" s="3"/>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>148</v>
       </c>
@@ -21857,8 +22335,9 @@
       <c r="N477" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O477" s="3"/>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>148</v>
       </c>
@@ -21901,8 +22380,9 @@
       <c r="N478" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O478" s="3"/>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>148</v>
       </c>
@@ -21945,8 +22425,9 @@
       <c r="N479" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O479" s="3"/>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>148</v>
       </c>
@@ -21989,8 +22470,9 @@
       <c r="N480" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O480" s="3"/>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>148</v>
       </c>
@@ -22033,8 +22515,9 @@
       <c r="N481" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O481" s="3"/>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>148</v>
       </c>
@@ -22077,8 +22560,9 @@
       <c r="N482" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O482" s="3"/>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>148</v>
       </c>
@@ -22121,8 +22605,9 @@
       <c r="N483" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O483" s="3"/>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>148</v>
       </c>
@@ -22165,8 +22650,9 @@
       <c r="N484" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O484" s="3"/>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>148</v>
       </c>
@@ -22209,8 +22695,9 @@
       <c r="N485" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O485" s="3"/>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>148</v>
       </c>
@@ -22253,8 +22740,9 @@
       <c r="N486" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O486" s="3"/>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>148</v>
       </c>
@@ -22297,8 +22785,9 @@
       <c r="N487" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O487" s="3"/>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>148</v>
       </c>
@@ -22341,8 +22830,9 @@
       <c r="N488" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O488" s="3"/>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>148</v>
       </c>
@@ -22385,8 +22875,9 @@
       <c r="N489" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O489" s="3"/>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>148</v>
       </c>
@@ -22429,8 +22920,9 @@
       <c r="N490" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O490" s="3"/>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>148</v>
       </c>
@@ -22473,8 +22965,9 @@
       <c r="N491" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O491" s="3"/>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>148</v>
       </c>
@@ -22517,8 +23010,9 @@
       <c r="N492" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O492" s="3"/>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>148</v>
       </c>
@@ -22561,8 +23055,9 @@
       <c r="N493" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O493" s="3"/>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>148</v>
       </c>
@@ -22605,8 +23100,9 @@
       <c r="N494" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O494" s="3"/>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>148</v>
       </c>
@@ -22649,8 +23145,9 @@
       <c r="N495" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O495" s="3"/>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>148</v>
       </c>
@@ -22693,8 +23190,9 @@
       <c r="N496" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O496" s="3"/>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>148</v>
       </c>
@@ -22737,8 +23235,9 @@
       <c r="N497" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O497" s="3"/>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>148</v>
       </c>
@@ -22781,8 +23280,9 @@
       <c r="N498" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O498" s="3"/>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>148</v>
       </c>
@@ -22825,8 +23325,9 @@
       <c r="N499" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O499" s="3"/>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>148</v>
       </c>
@@ -22869,8 +23370,9 @@
       <c r="N500" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O500" s="3"/>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>148</v>
       </c>
@@ -22913,8 +23415,9 @@
       <c r="N501" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O501" s="3"/>
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>148</v>
       </c>
@@ -22957,8 +23460,9 @@
       <c r="N502" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O502" s="3"/>
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>148</v>
       </c>
@@ -23001,8 +23505,9 @@
       <c r="N503" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O503" s="3"/>
+    </row>
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>148</v>
       </c>
@@ -23045,8 +23550,9 @@
       <c r="N504" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O504" s="3"/>
+    </row>
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>148</v>
       </c>
@@ -23089,8 +23595,9 @@
       <c r="N505" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O505" s="3"/>
+    </row>
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>152</v>
       </c>
@@ -23133,8 +23640,9 @@
       <c r="N506" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O506" s="3"/>
+    </row>
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>152</v>
       </c>
@@ -23177,8 +23685,9 @@
       <c r="N507" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O507" s="3"/>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>152</v>
       </c>
@@ -23221,8 +23730,9 @@
       <c r="N508" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O508" s="3"/>
+    </row>
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>152</v>
       </c>
@@ -23265,8 +23775,9 @@
       <c r="N509" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O509" s="3"/>
+    </row>
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>152</v>
       </c>
@@ -23309,8 +23820,9 @@
       <c r="N510" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O510" s="3"/>
+    </row>
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>152</v>
       </c>
@@ -23353,8 +23865,9 @@
       <c r="N511" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O511" s="3"/>
+    </row>
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>152</v>
       </c>
@@ -23397,8 +23910,9 @@
       <c r="N512" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O512" s="3"/>
+    </row>
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>152</v>
       </c>
@@ -23441,8 +23955,9 @@
       <c r="N513" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O513" s="3"/>
+    </row>
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>152</v>
       </c>
@@ -23485,8 +24000,9 @@
       <c r="N514" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O514" s="3"/>
+    </row>
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>152</v>
       </c>
@@ -23529,8 +24045,9 @@
       <c r="N515" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O515" s="3"/>
+    </row>
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>152</v>
       </c>
@@ -23573,8 +24090,9 @@
       <c r="N516" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O516" s="3"/>
+    </row>
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>152</v>
       </c>
@@ -23617,8 +24135,9 @@
       <c r="N517" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O517" s="3"/>
+    </row>
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>152</v>
       </c>
@@ -23661,8 +24180,9 @@
       <c r="N518" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O518" s="3"/>
+    </row>
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>152</v>
       </c>
@@ -23705,8 +24225,9 @@
       <c r="N519" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O519" s="3"/>
+    </row>
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>152</v>
       </c>
@@ -23749,8 +24270,9 @@
       <c r="N520" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O520" s="3"/>
+    </row>
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>152</v>
       </c>
@@ -23793,8 +24315,9 @@
       <c r="N521" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O521" s="3"/>
+    </row>
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>152</v>
       </c>
@@ -23837,8 +24360,9 @@
       <c r="N522" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O522" s="3"/>
+    </row>
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>152</v>
       </c>
@@ -23881,8 +24405,9 @@
       <c r="N523" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O523" s="3"/>
+    </row>
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>152</v>
       </c>
@@ -23925,8 +24450,9 @@
       <c r="N524" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O524" s="3"/>
+    </row>
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>152</v>
       </c>
@@ -23969,8 +24495,9 @@
       <c r="N525" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O525" s="3"/>
+    </row>
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>152</v>
       </c>
@@ -24013,8 +24540,9 @@
       <c r="N526" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O526" s="3"/>
+    </row>
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>152</v>
       </c>
@@ -24057,8 +24585,9 @@
       <c r="N527" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O527" s="3"/>
+    </row>
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>152</v>
       </c>
@@ -24101,8 +24630,9 @@
       <c r="N528" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O528" s="3"/>
+    </row>
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>152</v>
       </c>
@@ -24145,8 +24675,9 @@
       <c r="N529" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O529" s="3"/>
+    </row>
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>152</v>
       </c>
@@ -24189,8 +24720,9 @@
       <c r="N530" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O530" s="3"/>
+    </row>
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>152</v>
       </c>
@@ -24233,8 +24765,9 @@
       <c r="N531" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O531" s="3"/>
+    </row>
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>152</v>
       </c>
@@ -24277,8 +24810,9 @@
       <c r="N532" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O532" s="3"/>
+    </row>
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>152</v>
       </c>
@@ -24321,8 +24855,9 @@
       <c r="N533" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O533" s="3"/>
+    </row>
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>152</v>
       </c>
@@ -24365,8 +24900,9 @@
       <c r="N534" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O534" s="3"/>
+    </row>
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>152</v>
       </c>
@@ -24409,8 +24945,9 @@
       <c r="N535" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O535" s="3"/>
+    </row>
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>152</v>
       </c>
@@ -24453,8 +24990,9 @@
       <c r="N536" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O536" s="3"/>
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>152</v>
       </c>
@@ -24497,8 +25035,9 @@
       <c r="N537" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O537" s="3"/>
+    </row>
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>152</v>
       </c>
@@ -24541,8 +25080,9 @@
       <c r="N538" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O538" s="3"/>
+    </row>
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>152</v>
       </c>
@@ -24585,8 +25125,9 @@
       <c r="N539" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O539" s="3"/>
+    </row>
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>152</v>
       </c>
@@ -24629,8 +25170,9 @@
       <c r="N540" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O540" s="3"/>
+    </row>
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>152</v>
       </c>
@@ -24673,8 +25215,9 @@
       <c r="N541" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O541" s="3"/>
+    </row>
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>152</v>
       </c>
@@ -24717,8 +25260,9 @@
       <c r="N542" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O542" s="3"/>
+    </row>
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>152</v>
       </c>
@@ -24761,8 +25305,9 @@
       <c r="N543" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O543" s="3"/>
+    </row>
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>152</v>
       </c>
@@ -24805,8 +25350,9 @@
       <c r="N544" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O544" s="3"/>
+    </row>
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>152</v>
       </c>
@@ -24849,8 +25395,9 @@
       <c r="N545" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O545" s="3"/>
+    </row>
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>152</v>
       </c>
@@ -24893,8 +25440,9 @@
       <c r="N546" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O546" s="3"/>
+    </row>
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>152</v>
       </c>
@@ -24937,8 +25485,9 @@
       <c r="N547" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O547" s="3"/>
+    </row>
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>152</v>
       </c>
@@ -24981,8 +25530,9 @@
       <c r="N548" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O548" s="3"/>
+    </row>
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>152</v>
       </c>
@@ -25025,8 +25575,9 @@
       <c r="N549" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O549" s="3"/>
+    </row>
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>152</v>
       </c>
@@ -25069,8 +25620,9 @@
       <c r="N550" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O550" s="3"/>
+    </row>
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>152</v>
       </c>
@@ -25113,8 +25665,9 @@
       <c r="N551" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O551" s="3"/>
+    </row>
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>152</v>
       </c>
@@ -25157,8 +25710,9 @@
       <c r="N552" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O552" s="3"/>
+    </row>
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>152</v>
       </c>
@@ -25201,8 +25755,9 @@
       <c r="N553" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O553" s="3"/>
+    </row>
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>152</v>
       </c>
@@ -25245,8 +25800,9 @@
       <c r="N554" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O554" s="3"/>
+    </row>
+    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>152</v>
       </c>
@@ -25289,8 +25845,9 @@
       <c r="N555" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O555" s="3"/>
+    </row>
+    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>152</v>
       </c>
@@ -25333,8 +25890,9 @@
       <c r="N556" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O556" s="3"/>
+    </row>
+    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>152</v>
       </c>
@@ -25377,8 +25935,9 @@
       <c r="N557" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O557" s="3"/>
+    </row>
+    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>152</v>
       </c>
@@ -25421,8 +25980,9 @@
       <c r="N558" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O558" s="3"/>
+    </row>
+    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>152</v>
       </c>
@@ -25465,8 +26025,9 @@
       <c r="N559" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O559" s="3"/>
+    </row>
+    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>152</v>
       </c>
@@ -25509,8 +26070,9 @@
       <c r="N560" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O560" s="3"/>
+    </row>
+    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>152</v>
       </c>
@@ -25553,8 +26115,9 @@
       <c r="N561" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O561" s="3"/>
+    </row>
+    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>152</v>
       </c>
@@ -25597,8 +26160,9 @@
       <c r="N562" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O562" s="3"/>
+    </row>
+    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>152</v>
       </c>
@@ -25641,8 +26205,9 @@
       <c r="N563" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O563" s="3"/>
+    </row>
+    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>153</v>
       </c>
@@ -25685,8 +26250,9 @@
       <c r="N564" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O564" s="3"/>
+    </row>
+    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>153</v>
       </c>
@@ -25729,8 +26295,9 @@
       <c r="N565" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O565" s="3"/>
+    </row>
+    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>153</v>
       </c>
@@ -25773,8 +26340,9 @@
       <c r="N566" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O566" s="3"/>
+    </row>
+    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>153</v>
       </c>
@@ -25817,8 +26385,9 @@
       <c r="N567" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O567" s="3"/>
+    </row>
+    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>153</v>
       </c>
@@ -25861,8 +26430,9 @@
       <c r="N568" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O568" s="3"/>
+    </row>
+    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>153</v>
       </c>
@@ -25905,8 +26475,9 @@
       <c r="N569" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O569" s="3"/>
+    </row>
+    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>153</v>
       </c>
@@ -25949,8 +26520,9 @@
       <c r="N570" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O570" s="3"/>
+    </row>
+    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>153</v>
       </c>
@@ -25993,8 +26565,9 @@
       <c r="N571" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O571" s="3"/>
+    </row>
+    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>153</v>
       </c>
@@ -26037,8 +26610,9 @@
       <c r="N572" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O572" s="3"/>
+    </row>
+    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>153</v>
       </c>
@@ -26081,8 +26655,9 @@
       <c r="N573" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O573" s="3"/>
+    </row>
+    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>153</v>
       </c>
@@ -26125,8 +26700,9 @@
       <c r="N574" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O574" s="3"/>
+    </row>
+    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>153</v>
       </c>
@@ -26169,8 +26745,9 @@
       <c r="N575" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O575" s="3"/>
+    </row>
+    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>153</v>
       </c>
@@ -26213,8 +26790,9 @@
       <c r="N576" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O576" s="3"/>
+    </row>
+    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>153</v>
       </c>
@@ -26257,8 +26835,9 @@
       <c r="N577" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O577" s="3"/>
+    </row>
+    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>153</v>
       </c>
@@ -26301,8 +26880,9 @@
       <c r="N578" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O578" s="3"/>
+    </row>
+    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>153</v>
       </c>
@@ -26345,8 +26925,9 @@
       <c r="N579" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O579" s="3"/>
+    </row>
+    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>153</v>
       </c>
@@ -26389,8 +26970,9 @@
       <c r="N580" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O580" s="3"/>
+    </row>
+    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>153</v>
       </c>
@@ -26433,8 +27015,9 @@
       <c r="N581" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O581" s="3"/>
+    </row>
+    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>153</v>
       </c>
@@ -26477,8 +27060,9 @@
       <c r="N582" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O582" s="3"/>
+    </row>
+    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>153</v>
       </c>
@@ -26521,8 +27105,9 @@
       <c r="N583" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O583" s="3"/>
+    </row>
+    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>153</v>
       </c>
@@ -26565,8 +27150,9 @@
       <c r="N584" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O584" s="3"/>
+    </row>
+    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>153</v>
       </c>
@@ -26609,8 +27195,9 @@
       <c r="N585" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O585" s="3"/>
+    </row>
+    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>153</v>
       </c>
@@ -26653,8 +27240,9 @@
       <c r="N586" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O586" s="3"/>
+    </row>
+    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>153</v>
       </c>
@@ -26697,8 +27285,9 @@
       <c r="N587" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O587" s="3"/>
+    </row>
+    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>153</v>
       </c>
@@ -26741,8 +27330,9 @@
       <c r="N588" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O588" s="3"/>
+    </row>
+    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>153</v>
       </c>
@@ -26785,8 +27375,9 @@
       <c r="N589" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O589" s="3"/>
+    </row>
+    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>153</v>
       </c>
@@ -26829,8 +27420,9 @@
       <c r="N590" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O590" s="3"/>
+    </row>
+    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>153</v>
       </c>
@@ -26873,8 +27465,9 @@
       <c r="N591" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O591" s="3"/>
+    </row>
+    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>153</v>
       </c>
@@ -26917,8 +27510,9 @@
       <c r="N592" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O592" s="3"/>
+    </row>
+    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>153</v>
       </c>
@@ -26961,8 +27555,9 @@
       <c r="N593" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O593" s="3"/>
+    </row>
+    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>153</v>
       </c>
@@ -27005,8 +27600,9 @@
       <c r="N594" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O594" s="3"/>
+    </row>
+    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>153</v>
       </c>
@@ -27049,8 +27645,9 @@
       <c r="N595" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O595" s="3"/>
+    </row>
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>153</v>
       </c>
@@ -27093,8 +27690,9 @@
       <c r="N596" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O596" s="3"/>
+    </row>
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>153</v>
       </c>
@@ -27137,8 +27735,9 @@
       <c r="N597" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O597" s="3"/>
+    </row>
+    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>153</v>
       </c>
@@ -27181,8 +27780,9 @@
       <c r="N598" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O598" s="3"/>
+    </row>
+    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>153</v>
       </c>
@@ -27225,8 +27825,9 @@
       <c r="N599" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O599" s="3"/>
+    </row>
+    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>153</v>
       </c>
@@ -27269,8 +27870,9 @@
       <c r="N600" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O600" s="3"/>
+    </row>
+    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>153</v>
       </c>
@@ -27313,8 +27915,9 @@
       <c r="N601" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O601" s="3"/>
+    </row>
+    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>153</v>
       </c>
@@ -27357,8 +27960,9 @@
       <c r="N602" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O602" s="3"/>
+    </row>
+    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>153</v>
       </c>
@@ -27401,8 +28005,9 @@
       <c r="N603" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O603" s="3"/>
+    </row>
+    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>153</v>
       </c>
@@ -27445,8 +28050,9 @@
       <c r="N604" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O604" s="3"/>
+    </row>
+    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>153</v>
       </c>
@@ -27489,8 +28095,9 @@
       <c r="N605" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O605" s="3"/>
+    </row>
+    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>153</v>
       </c>
@@ -27533,8 +28140,9 @@
       <c r="N606" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O606" s="3"/>
+    </row>
+    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>153</v>
       </c>
@@ -27577,8 +28185,9 @@
       <c r="N607" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O607" s="3"/>
+    </row>
+    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>153</v>
       </c>
@@ -27621,8 +28230,9 @@
       <c r="N608" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O608" s="3"/>
+    </row>
+    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>153</v>
       </c>
@@ -27665,8 +28275,9 @@
       <c r="N609" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O609" s="3"/>
+    </row>
+    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>153</v>
       </c>
@@ -27709,8 +28320,9 @@
       <c r="N610" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O610" s="3"/>
+    </row>
+    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>153</v>
       </c>
@@ -27753,8 +28365,9 @@
       <c r="N611" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O611" s="3"/>
+    </row>
+    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>153</v>
       </c>
@@ -27797,8 +28410,9 @@
       <c r="N612" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O612" s="3"/>
+    </row>
+    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>153</v>
       </c>
@@ -27841,8 +28455,9 @@
       <c r="N613" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O613" s="3"/>
+    </row>
+    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>153</v>
       </c>
@@ -27885,8 +28500,9 @@
       <c r="N614" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O614" s="3"/>
+    </row>
+    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>153</v>
       </c>
@@ -27929,8 +28545,9 @@
       <c r="N615" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O615" s="3"/>
+    </row>
+    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>153</v>
       </c>
@@ -27973,8 +28590,9 @@
       <c r="N616" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O616" s="3"/>
+    </row>
+    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>153</v>
       </c>
@@ -28017,8 +28635,9 @@
       <c r="N617" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O617" s="3"/>
+    </row>
+    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>153</v>
       </c>
@@ -28061,8 +28680,9 @@
       <c r="N618" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O618" s="3"/>
+    </row>
+    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>153</v>
       </c>
@@ -28105,8 +28725,9 @@
       <c r="N619" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O619" s="3"/>
+    </row>
+    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>153</v>
       </c>
@@ -28149,8 +28770,9 @@
       <c r="N620" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O620" s="3"/>
+    </row>
+    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>153</v>
       </c>
@@ -28193,8 +28815,9 @@
       <c r="N621" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O621" s="3"/>
+    </row>
+    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>153</v>
       </c>
@@ -28237,8 +28860,9 @@
       <c r="N622" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O622" s="3"/>
+    </row>
+    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>153</v>
       </c>
@@ -28281,8 +28905,9 @@
       <c r="N623" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O623" s="3"/>
+    </row>
+    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>153</v>
       </c>
@@ -28325,8 +28950,9 @@
       <c r="N624" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O624" s="3"/>
+    </row>
+    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>153</v>
       </c>
@@ -28369,8 +28995,9 @@
       <c r="N625" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O625" s="3"/>
+    </row>
+    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>153</v>
       </c>
@@ -28413,8 +29040,9 @@
       <c r="N626" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O626" s="3"/>
+    </row>
+    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>153</v>
       </c>
@@ -28457,8 +29085,9 @@
       <c r="N627" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O627" s="3"/>
+    </row>
+    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>153</v>
       </c>
@@ -28501,8 +29130,9 @@
       <c r="N628" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O628" s="3"/>
+    </row>
+    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>153</v>
       </c>
@@ -28545,8 +29175,9 @@
       <c r="N629" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O629" s="3"/>
+    </row>
+    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>153</v>
       </c>
@@ -28589,8 +29220,9 @@
       <c r="N630" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O630" s="3"/>
+    </row>
+    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>153</v>
       </c>
@@ -28633,8 +29265,9 @@
       <c r="N631" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O631" s="3"/>
+    </row>
+    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>153</v>
       </c>
@@ -28677,8 +29310,9 @@
       <c r="N632" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O632" s="3"/>
+    </row>
+    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>153</v>
       </c>
@@ -28721,8 +29355,9 @@
       <c r="N633" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O633" s="3"/>
+    </row>
+    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>153</v>
       </c>
@@ -28765,8 +29400,9 @@
       <c r="N634" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O634" s="3"/>
+    </row>
+    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>153</v>
       </c>
@@ -28809,8 +29445,9 @@
       <c r="N635" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O635" s="3"/>
+    </row>
+    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>153</v>
       </c>
@@ -28853,8 +29490,9 @@
       <c r="N636" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O636" s="3"/>
+    </row>
+    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>153</v>
       </c>
@@ -28897,8 +29535,9 @@
       <c r="N637" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O637" s="3"/>
+    </row>
+    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>153</v>
       </c>
@@ -28941,8 +29580,9 @@
       <c r="N638" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O638" s="3"/>
+    </row>
+    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>153</v>
       </c>
@@ -28985,8 +29625,9 @@
       <c r="N639" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O639" s="3"/>
+    </row>
+    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>153</v>
       </c>
@@ -29029,8 +29670,9 @@
       <c r="N640" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O640" s="3"/>
+    </row>
+    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>153</v>
       </c>
@@ -29073,8 +29715,9 @@
       <c r="N641" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O641" s="3"/>
+    </row>
+    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>153</v>
       </c>
@@ -29117,8 +29760,9 @@
       <c r="N642" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O642" s="3"/>
+    </row>
+    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>153</v>
       </c>
@@ -29161,8 +29805,9 @@
       <c r="N643" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O643" s="3"/>
+    </row>
+    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>153</v>
       </c>
@@ -29205,8 +29850,9 @@
       <c r="N644" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O644" s="3"/>
+    </row>
+    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>153</v>
       </c>
@@ -29249,8 +29895,9 @@
       <c r="N645" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O645" s="3"/>
+    </row>
+    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>153</v>
       </c>
@@ -29293,8 +29940,9 @@
       <c r="N646" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O646" s="3"/>
+    </row>
+    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>153</v>
       </c>
@@ -29337,8 +29985,9 @@
       <c r="N647" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O647" s="3"/>
+    </row>
+    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>153</v>
       </c>
@@ -29381,8 +30030,9 @@
       <c r="N648" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O648" s="3"/>
+    </row>
+    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>153</v>
       </c>
@@ -29425,8 +30075,9 @@
       <c r="N649" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O649" s="3"/>
+    </row>
+    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>153</v>
       </c>
@@ -29469,8 +30120,9 @@
       <c r="N650" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O650" s="3"/>
+    </row>
+    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>153</v>
       </c>
@@ -29513,8 +30165,9 @@
       <c r="N651" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O651" s="3"/>
+    </row>
+    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>153</v>
       </c>
@@ -29557,8 +30210,9 @@
       <c r="N652" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O652" s="3"/>
+    </row>
+    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>153</v>
       </c>
@@ -29601,8 +30255,9 @@
       <c r="N653" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O653" s="3"/>
+    </row>
+    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>153</v>
       </c>
@@ -29645,8 +30300,9 @@
       <c r="N654" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O654" s="3"/>
+    </row>
+    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>153</v>
       </c>
@@ -29689,8 +30345,9 @@
       <c r="N655" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O655" s="3"/>
+    </row>
+    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>153</v>
       </c>
@@ -29733,8 +30390,9 @@
       <c r="N656" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O656" s="3"/>
+    </row>
+    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>153</v>
       </c>
@@ -29777,8 +30435,9 @@
       <c r="N657" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O657" s="3"/>
+    </row>
+    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>153</v>
       </c>
@@ -29821,8 +30480,9 @@
       <c r="N658" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O658" s="3"/>
+    </row>
+    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>153</v>
       </c>
@@ -29865,8 +30525,9 @@
       <c r="N659" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O659" s="3"/>
+    </row>
+    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>153</v>
       </c>
@@ -29909,8 +30570,9 @@
       <c r="N660" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O660" s="3"/>
+    </row>
+    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>153</v>
       </c>
@@ -29953,8 +30615,9 @@
       <c r="N661" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O661" s="3"/>
+    </row>
+    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>153</v>
       </c>
@@ -29997,8 +30660,9 @@
       <c r="N662" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O662" s="3"/>
+    </row>
+    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>153</v>
       </c>
@@ -30041,8 +30705,9 @@
       <c r="N663" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O663" s="3"/>
+    </row>
+    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>153</v>
       </c>
@@ -30085,8 +30750,9 @@
       <c r="N664" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O664" s="3"/>
+    </row>
+    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>153</v>
       </c>
@@ -30129,8 +30795,9 @@
       <c r="N665" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O665" s="3"/>
+    </row>
+    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>153</v>
       </c>
@@ -30173,8 +30840,9 @@
       <c r="N666" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O666" s="3"/>
+    </row>
+    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>153</v>
       </c>
@@ -30217,8 +30885,9 @@
       <c r="N667" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O667" s="3"/>
+    </row>
+    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>154</v>
       </c>
@@ -30261,8 +30930,9 @@
       <c r="N668" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O668" s="3"/>
+    </row>
+    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>154</v>
       </c>
@@ -30305,8 +30975,9 @@
       <c r="N669" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O669" s="3"/>
+    </row>
+    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>154</v>
       </c>
@@ -30349,8 +31020,9 @@
       <c r="N670" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O670" s="3"/>
+    </row>
+    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>154</v>
       </c>
@@ -30393,8 +31065,9 @@
       <c r="N671" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O671" s="3"/>
+    </row>
+    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>154</v>
       </c>
@@ -30437,8 +31110,9 @@
       <c r="N672" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O672" s="3"/>
+    </row>
+    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>154</v>
       </c>
@@ -30481,8 +31155,9 @@
       <c r="N673" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O673" s="3"/>
+    </row>
+    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>154</v>
       </c>
@@ -30525,8 +31200,9 @@
       <c r="N674" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O674" s="3"/>
+    </row>
+    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>154</v>
       </c>
@@ -30569,8 +31245,9 @@
       <c r="N675" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O675" s="3"/>
+    </row>
+    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>154</v>
       </c>
@@ -30613,8 +31290,9 @@
       <c r="N676" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O676" s="3"/>
+    </row>
+    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>154</v>
       </c>
@@ -30657,8 +31335,9 @@
       <c r="N677" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O677" s="3"/>
+    </row>
+    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>154</v>
       </c>
@@ -30701,8 +31380,9 @@
       <c r="N678" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O678" s="3"/>
+    </row>
+    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>154</v>
       </c>
@@ -30745,8 +31425,9 @@
       <c r="N679" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O679" s="3"/>
+    </row>
+    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>154</v>
       </c>
@@ -30789,8 +31470,9 @@
       <c r="N680" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O680" s="3"/>
+    </row>
+    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>154</v>
       </c>
@@ -30833,8 +31515,9 @@
       <c r="N681" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O681" s="3"/>
+    </row>
+    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>154</v>
       </c>
@@ -30877,8 +31560,9 @@
       <c r="N682" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O682" s="3"/>
+    </row>
+    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>154</v>
       </c>
@@ -30921,8 +31605,9 @@
       <c r="N683" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O683" s="3"/>
+    </row>
+    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>154</v>
       </c>
@@ -30965,8 +31650,9 @@
       <c r="N684" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O684" s="3"/>
+    </row>
+    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>154</v>
       </c>
@@ -31009,8 +31695,9 @@
       <c r="N685" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O685" s="3"/>
+    </row>
+    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>154</v>
       </c>
@@ -31053,8 +31740,9 @@
       <c r="N686" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O686" s="3"/>
+    </row>
+    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>154</v>
       </c>
@@ -31097,8 +31785,9 @@
       <c r="N687" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O687" s="3"/>
+    </row>
+    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>154</v>
       </c>
@@ -31141,8 +31830,9 @@
       <c r="N688" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O688" s="3"/>
+    </row>
+    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>154</v>
       </c>
@@ -31185,8 +31875,9 @@
       <c r="N689" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O689" s="3"/>
+    </row>
+    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>154</v>
       </c>
@@ -31229,8 +31920,9 @@
       <c r="N690" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O690" s="3"/>
+    </row>
+    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>154</v>
       </c>
@@ -31273,8 +31965,9 @@
       <c r="N691" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="692" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O691" s="3"/>
+    </row>
+    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>154</v>
       </c>
@@ -31317,8 +32010,9 @@
       <c r="N692" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O692" s="3"/>
+    </row>
+    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>154</v>
       </c>
@@ -31361,8 +32055,9 @@
       <c r="N693" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O693" s="3"/>
+    </row>
+    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>154</v>
       </c>
@@ -31405,8 +32100,9 @@
       <c r="N694" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O694" s="3"/>
+    </row>
+    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>154</v>
       </c>
@@ -31449,8 +32145,9 @@
       <c r="N695" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O695" s="3"/>
+    </row>
+    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>154</v>
       </c>
@@ -31493,8 +32190,9 @@
       <c r="N696" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O696" s="3"/>
+    </row>
+    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>154</v>
       </c>
@@ -31537,8 +32235,9 @@
       <c r="N697" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O697" s="3"/>
+    </row>
+    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>154</v>
       </c>
@@ -31581,8 +32280,9 @@
       <c r="N698" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O698" s="3"/>
+    </row>
+    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>154</v>
       </c>
@@ -31625,8 +32325,9 @@
       <c r="N699" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O699" s="3"/>
+    </row>
+    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>154</v>
       </c>
@@ -31669,8 +32370,9 @@
       <c r="N700" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O700" s="3"/>
+    </row>
+    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>154</v>
       </c>
@@ -31713,8 +32415,9 @@
       <c r="N701" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O701" s="3"/>
+    </row>
+    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>154</v>
       </c>
@@ -31757,8 +32460,9 @@
       <c r="N702" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O702" s="3"/>
+    </row>
+    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>154</v>
       </c>
@@ -31801,8 +32505,9 @@
       <c r="N703" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O703" s="3"/>
+    </row>
+    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>154</v>
       </c>
@@ -31845,8 +32550,9 @@
       <c r="N704" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O704" s="3"/>
+    </row>
+    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>154</v>
       </c>
@@ -31889,8 +32595,9 @@
       <c r="N705" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O705" s="3"/>
+    </row>
+    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>154</v>
       </c>
@@ -31933,8 +32640,9 @@
       <c r="N706" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="707" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O706" s="3"/>
+    </row>
+    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>154</v>
       </c>
@@ -31977,8 +32685,9 @@
       <c r="N707" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O707" s="3"/>
+    </row>
+    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>154</v>
       </c>
@@ -32021,8 +32730,9 @@
       <c r="N708" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O708" s="3"/>
+    </row>
+    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>154</v>
       </c>
